--- a/electronics/kicker/rev0/BOM.xlsx
+++ b/electronics/kicker/rev0/BOM.xlsx
@@ -206,7 +206,7 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">C1, C2, C3, C4, C5, C6, C7, C8, 19</t>
+    <t xml:space="preserve">C1, C2, C3, C4, C5, C6, C7, C8, C9</t>
   </si>
   <si>
     <t xml:space="preserve">9</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">MCWR08X3001FTL</t>
   </si>
   <si>
-    <t xml:space="preserve">Resistor 1k</t>
+    <t xml:space="preserve">Resistor 3k</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
@@ -500,13 +500,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -582,9 +582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>664560</xdr:colOff>
+      <xdr:colOff>664200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -598,7 +598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="204480"/>
-          <a:ext cx="1328760" cy="374040"/>
+          <a:ext cx="1328400" cy="373680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -614,28 +614,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:I51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="27.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="9"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="9"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1322,7 +1322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1332,10 +1332,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.63"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1348,7 +1345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1358,10 +1355,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.63"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/electronics/kicker/rev0/BOM.xlsx
+++ b/electronics/kicker/rev0/BOM.xlsx
@@ -239,19 +239,19 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCWR08X6802FTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor 68k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
     <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCWR08X6802FTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor 68k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
   </si>
   <si>
     <t xml:space="preserve">MCWR08X2001FTL</t>
@@ -582,9 +582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -598,7 +598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="204480"/>
-          <a:ext cx="1328400" cy="373680"/>
+          <a:ext cx="1328040" cy="373320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -621,7 +621,7 @@
   <dimension ref="A2:I51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
